--- a/data/register.xlsx
+++ b/data/register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shi\Desktop\test\test2\API-outo-frame\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C92B8B7-3764-4D22-A8D8-9A5696A7DE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9057B5-4069-4B24-A4D0-0D11BE893369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4284" yWindow="2328" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"email":"outotest@tetx.com","password":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"email":"","password":"123456"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +128,10 @@
   </si>
   <si>
     <t>select  * form  …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"email":"#data#@tetx.com","password":"123456"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.109375" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>100200</v>
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>100300</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>100200</v>
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>100201</v>
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>100600</v>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>100201</v>
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>100201</v>
